--- a/shopping records.xlsx
+++ b/shopping records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24r6110\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00CF36D3-159B-498B-8F16-3D5869A490F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895913B-951D-433F-A737-571E5448E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27597880-BFFF-4732-9D51-18789E442CD2}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>200 </t>
   </si>
   <si>
-    <t>ハンダごて</t>
-  </si>
-  <si>
     <t>399 </t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>148 </t>
-  </si>
-  <si>
-    <t>小零食</t>
   </si>
   <si>
     <t>炸鸡</t>
@@ -393,12 +387,20 @@
     <t>goods</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薯片</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +461,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -503,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,35 +868,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE20AB-587E-4DC3-955F-5DC4AB9D998B}">
-  <dimension ref="B1:C116"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +914,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -900,7 +925,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -908,7 +936,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,7 +947,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,7 +958,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +969,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -940,7 +980,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -948,7 +991,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,7 +1002,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -964,7 +1013,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1024,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
@@ -980,7 +1035,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -988,7 +1046,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1057,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1068,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1079,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1090,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1101,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1112,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1044,7 +1123,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1134,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>5</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1145,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1156,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>5</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1167,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1178,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>5</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1092,7 +1189,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1100,7 +1200,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1211,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +1222,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>6</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1233,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>6</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1244,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>6</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1140,7 +1255,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>7</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1148,7 +1266,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>7</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1156,7 +1277,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>7</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1164,7 +1288,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>7</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +1299,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>7</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1180,7 +1310,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>8</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1188,7 +1321,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>8</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1196,15 +1332,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>8</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>8</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1354,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>8</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1220,7 +1365,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>9</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1376,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>9</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1236,7 +1387,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>9</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1398,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>9</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1409,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>10</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
@@ -1260,7 +1420,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>10</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1268,7 +1431,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>10</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1442,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>11</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
@@ -1284,515 +1453,696 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>11</v>
+      </c>
       <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>11</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>12</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="6">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
+        <v>14</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>15</v>
+      </c>
       <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="6">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="6">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>15</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
+        <v>15</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="6">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="3">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
         <v>16</v>
       </c>
-      <c r="C76" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
+        <v>16</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>16</v>
+      </c>
       <c r="B80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
+        <v>16</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>16</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="3">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>17</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="6">
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
+        <v>18</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="3">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C90" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="6">
+        <v>18</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>18</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="1" t="s">
+      <c r="C92" s="3">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
+        <v>18</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
+        <v>19</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
+        <v>19</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
+        <v>19</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="3">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="3">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="3">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="97" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="6">
+        <v>19</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="3" t="s">
+    <row r="98" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
+        <v>20</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="6">
+        <v>20</v>
+      </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" s="3">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
+        <v>20</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="6">
+        <v>20</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>21</v>
+      </c>
       <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="6">
+        <v>21</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
+        <v>21</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="6">
+        <v>22</v>
+      </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
+        <v>22</v>
+      </c>
       <c r="B106" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="6">
+        <v>22</v>
+      </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>22</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="6">
+        <v>23</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="C109" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
+        <v>23</v>
+      </c>
       <c r="B110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="6">
+        <v>23</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
+        <v>24</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="6">
+        <v>24</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="6">
+        <v>24</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="3">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" s="3">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C114" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="6">
+        <v>24</v>
+      </c>
       <c r="B115" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="3">
+        <v>88</v>
+      </c>
+      <c r="C115" s="3">
         <v>249</v>
       </c>
     </row>
